--- a/data/network_df.xlsx
+++ b/data/network_df.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,61 +454,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>코로나</t>
+          <t>교회</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>다이어트</t>
+          <t>코로나</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.05905905905905906</v>
+        <v>0.04004004004004004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>맛집</t>
+          <t>코로나</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>코로나</t>
+          <t>극복</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09809809809809809</v>
+        <v>0.04104104104104104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>방역</t>
+          <t>코로나</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>코로나</t>
+          <t>금</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.05505505505505506</v>
+        <v>0.04404404404404404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>코로나</t>
+          <t>다이어트</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>운동</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05705705705705705</v>
+        <v>0.04204204204204205</v>
       </c>
     </row>
     <row r="6">
@@ -519,11 +519,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>다이어트</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.06006006006006006</v>
+        <v>0.05905905905905906</v>
       </c>
     </row>
     <row r="7">
@@ -534,47 +534,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>스타</t>
+          <t>맛집</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1971971971971972</v>
+        <v>0.09809809809809809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>코로나</t>
+          <t>방역</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>운동</t>
+          <t>코로나</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07707707707707707</v>
+        <v>0.05505505505505506</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>코로나</t>
+          <t>부산</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>유튜브</t>
+          <t>코로나</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.05805805805805806</v>
+        <v>0.05705705705705705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>집</t>
+          <t>사랑</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -583,22 +583,187 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06206206206206206</v>
+        <v>0.04004004004004004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>코로나</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>유튜브</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04104104104104104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.06006006006006006</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>소독</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04304304304304304</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>스타</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1971971971971972</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>여행</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04804804804804805</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>운동</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07707707707707707</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>유튜브</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05805805805805806</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>이벤트</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04804804804804805</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>집</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06206206206206206</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>집콕</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.04604604604604605</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>카페</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>0.05705705705705705</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>코로나</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>헬스</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.04704704704704705</v>
       </c>
     </row>
   </sheetData>
